--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBaseRate.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8691B9C-1E48-4D22-8DBB-D2413C2CCF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -181,11 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-TWD: 新台幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,11 +298,16 @@
 2:未放行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>共用代碼檔
+TWD:新台幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -673,6 +675,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -708,6 +727,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -909,7 +945,7 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>14</v>
@@ -937,7 +973,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>27</v>
@@ -1030,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1051,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1060,13 +1096,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="21">
         <v>8</v>
@@ -1085,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="21">
         <v>6</v>
@@ -1107,7 +1143,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="21">
         <v>40</v>
@@ -1120,10 +1156,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>38</v>
@@ -1132,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -1254,90 +1290,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
